--- a/data/small_db_data.xlsx
+++ b/data/small_db_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="131">
   <si>
     <t xml:space="preserve">Item ID</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rack 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05\\09\\2013</t>
   </si>
   <si>
     <t xml:space="preserve">No Picture Selected</t>
@@ -387,9 +390,6 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inventory date</t>
   </si>
   <si>
     <t xml:space="preserve">artist name</t>
@@ -433,6 +433,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -549,13 +550,13 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G21:G22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="24.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="24.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,26 +676,26 @@
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>41403</v>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>32</v>
@@ -703,12 +704,12 @@
         <v>39.625</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -716,29 +717,29 @@
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>41403</v>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>29.875</v>
@@ -747,45 +748,45 @@
         <v>42</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>41403</v>
+        <v>52</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>29.875</v>
@@ -794,39 +795,39 @@
         <v>42</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>41403</v>
+        <v>52</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>31.75</v>
@@ -835,39 +836,39 @@
         <v>39.75</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>41403</v>
+        <v>59</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>31.75</v>
@@ -876,42 +877,42 @@
         <v>39.75</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>41403</v>
+        <v>59</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>30</v>
@@ -920,42 +921,42 @@
         <v>42</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>41403</v>
+        <v>66</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>30</v>
@@ -964,42 +965,42 @@
         <v>42</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>41403</v>
+        <v>66</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>31.75</v>
@@ -1008,39 +1009,39 @@
         <v>39.75</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>41403</v>
+        <v>74</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>30.125</v>
@@ -1049,39 +1050,39 @@
         <v>51.25</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>41403</v>
+        <v>74</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>30.125</v>
@@ -1090,42 +1091,42 @@
         <v>75.375</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>41403</v>
+        <v>81</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>30.125</v>
@@ -1134,42 +1135,42 @@
         <v>40</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>41403</v>
+        <v>81</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>45</v>
@@ -1178,39 +1179,39 @@
         <v>35.375</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>41403</v>
+        <v>74</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>45</v>
@@ -1219,39 +1220,39 @@
         <v>35.375</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>41403</v>
+        <v>81</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>20</v>
@@ -1260,42 +1261,42 @@
         <v>30</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>41403</v>
+        <v>81</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>31.75</v>
@@ -1304,45 +1305,45 @@
         <v>39.75</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>41403</v>
+        <v>81</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>29.75</v>
@@ -1351,89 +1352,89 @@
         <v>41.75</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>41403</v>
+        <v>81</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>25.75</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>41403</v>
+        <v>81</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>28.75</v>
@@ -1442,33 +1443,33 @@
         <v>32.125</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>6</v>

--- a/data/small_db_data.xlsx
+++ b/data/small_db_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="124">
   <si>
     <t xml:space="preserve">index</t>
   </si>
@@ -307,6 +307,31 @@
     <t xml:space="preserve">Frame damage</t>
   </si>
   <si>
+    <t xml:space="preserve">remote:AT.P.614A.jpg
+size:1896,2357
+JPEG:AT.P.614A_8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote:AT.P.614Averso.jpg
+size:1964,2479
+JPEG:AT.P.614Averso_8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote:AT.P.614B.jpg
+size:2914,2212
+JPEG:AT.P.614B_8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote:AT.P.614C.jpg
+size:2777,2128
+JPEG:AT.P.614C_8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote:AT.P.614D.jpg
+size:2678,2021
+JPEG:AT.P.614D_7.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">AT.P.0037</t>
   </si>
   <si>
@@ -323,6 +348,21 @@
   </si>
   <si>
     <t xml:space="preserve">remote:AT.P.37.jpg
+size:1632,1224
+JPEG:AT.P.37_8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote:AT.P.38.jpg
+size:1632,1224
+JPEG:AT.P.37_8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote:AT.P.40.jpg
+size:1632,1224
+JPEG:AT.P.37_8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote:AT.P.41.jpg
 size:1632,1224
 JPEG:AT.P.37_8.jpg</t>
   </si>
@@ -464,7 +504,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -487,6 +527,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -512,8 +556,8 @@
   </sheetPr>
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U17" activeCellId="0" sqref="U17:Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1168,7 +1212,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -1207,6 +1251,21 @@
       </c>
       <c r="Q17" s="5" t="n">
         <v>41.75</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,7 +1273,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>31</v>
@@ -1226,16 +1285,16 @@
         <v>33</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>37</v>
@@ -1243,8 +1302,20 @@
       <c r="P18" s="5" t="n">
         <v>25.75</v>
       </c>
-      <c r="U18" s="6" t="s">
-        <v>100</v>
+      <c r="U18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,7 +1323,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
@@ -1264,16 +1335,16 @@
         <v>33</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>37</v>
@@ -1284,8 +1355,8 @@
       <c r="Q19" s="5" t="n">
         <v>32.125</v>
       </c>
-      <c r="U19" s="6" t="s">
-        <v>106</v>
+      <c r="U19" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,7 +1364,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1305,19 +1376,19 @@
         <v>33</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>37</v>
@@ -1328,8 +1399,8 @@
       <c r="Q20" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="U20" s="6" t="s">
-        <v>112</v>
+      <c r="U20" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,7 +1408,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>31</v>
@@ -1349,16 +1420,16 @@
         <v>33</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>37</v>
@@ -1369,8 +1440,8 @@
       <c r="Q21" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="U21" s="6" t="s">
-        <v>115</v>
+      <c r="U21" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
